--- a/tests/data/madeup_H2_O2_ST_idt.xlsx
+++ b/tests/data/madeup_H2_O2_ST_idt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5643E6-A1B9-D141-987E-651DA64518B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D85D22-96B8-854D-A3AB-1C1ECDABAADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2980" yWindow="4020" windowWidth="19080" windowHeight="13140" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>[OH]</t>
   </si>
   <si>
-    <t>idt_target</t>
-  </si>
-  <si>
     <t>idt_method</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>idt</t>
+  </si>
+  <si>
+    <t>idt_targ</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,7 +663,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>24</v>
@@ -895,7 +895,7 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>42</v>
@@ -906,10 +906,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1108,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6">
         <v>500</v>
